--- a/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
           <t>0.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5428571428571428</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>0.34285714285714286</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.37142857142857144</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45714285714285713</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.2857142857142857</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.3142857142857143</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.42857142857142855</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.5428571428571428</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.45714285714285713</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.6857142857142857</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.2857142857142857</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.45714285714285713</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.34285714285714286</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.34285714285714286</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.5142857142857142</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.22857142857142856</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.2571428571428571</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0.14285714285714285</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0.2571428571428571</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0.5142857142857142</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0.3142857142857143</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.42857142857142855</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0.2857142857142857</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>0.2857142857142857</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0.5142857142857142</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0.42857142857142855</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0.45714285714285713</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0.4857142857142857</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>0.5142857142857142</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>0.11428571428571428</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.34285714285714286</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.34285714285714286</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>0.5128205128205128</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.46153846153846156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.6410256410256411</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.48717948717948717</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.4358974358974359</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.46153846153846156</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.41025641025641024</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.5897435897435898</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.5384615384615384</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.5641025641025641</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.38461538461538464</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.48717948717948717</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.48717948717948717</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.6153846153846154</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.28205128205128205</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.358974358974359</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.20512820512820512</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.38461538461538464</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.38461538461538464</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0.4358974358974359</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0.4358974358974359</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0.3076923076923077</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.28205128205128205</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>0.358974358974359</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>0.1794871794871795</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0.4358974358974359</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0.4358974358974359</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0.1282051282051282</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0.5128205128205128</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>0.48717948717948717</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>0.5384615384615384</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.5897435897435898</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.48717948717948717</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.3076923076923077</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.3076923076923077</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5625</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.5625</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.5625</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.8125</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.5625</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/frequency.xlsx
@@ -670,414 +670,414 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.5151515151515151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.3939393939393939</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.48484848484848486</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.30303030303030304</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3939393939393939</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.5151515151515151</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3939393939393939</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.48484848484848486</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.696969696969697</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.18181818181818182</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.5151515151515151</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3939393939393939</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.21212121212121213</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.12121212121212122</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5151515151515151</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.3939393939393939</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.30303030303030304</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
+          <t>0.30303030303030304</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0.3939393939393939</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0.5454545454545454</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0.42424242424242425</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0.45454545454545453</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0.18181818181818182</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0.48484848484848486</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.5454545454545454</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>0.12121212121212122</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5757575757575758</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.18181818181818182</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.30303030303030304</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.30303030303030304</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.5428571428571428</t>
+          <t>0.5128205128205128</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.46153846153846156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.37142857142857144</t>
+          <t>0.6410256410256411</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.45714285714285713</t>
+          <t>0.48717948717948717</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.4358974358974359</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.3142857142857143</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.46153846153846156</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.41025641025641024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.5428571428571428</t>
+          <t>0.5897435897435898</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5384615384615384</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5641025641025641</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.45714285714285713</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.6857142857142857</t>
+          <t>0.48717948717948717</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.48717948717948717</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.45714285714285713</t>
+          <t>0.6153846153846154</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.28205128205128205</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.5142857142857142</t>
+          <t>0.358974358974359</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.20512820512820512</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.22857142857142856</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.2571428571428571</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.14285714285714285</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.2571428571428571</t>
+          <t>0.4358974358974359</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.5142857142857142</t>
+          <t>0.4358974358974359</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.3142857142857143</t>
+          <t>0.3076923076923077</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.28205128205128205</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.358974358974359</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.1794871794871795</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.5142857142857142</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.4358974358974359</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.45714285714285713</t>
+          <t>0.4358974358974359</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1282051282051282</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.4857142857142857</t>
+          <t>0.5128205128205128</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.5142857142857142</t>
+          <t>0.48717948717948717</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.11428571428571428</t>
+          <t>0.5384615384615384</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1087,491 +1087,491 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.5897435897435898</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.48717948717948717</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.3076923076923077</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.3076923076923077</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.5128205128205128</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.46153846153846156</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6410256410256411</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.46153846153846156</t>
+          <t>0.17647058823529413</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.41025641025641024</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.5897435897435898</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.5384615384615384</t>
+          <t>0.6470588235294118</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.5641025641025641</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.6153846153846154</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.28205128205128205</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.358974358974359</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.20512820512820512</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.17647058823529413</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.3076923076923077</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.28205128205128205</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.358974358974359</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.1794871794871795</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.1282051282051282</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.5128205128205128</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.5384615384615384</t>
+          <t>0.17647058823529413</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8823529411764706</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.5897435897435898</t>
+          <t>0.6470588235294118</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.3076923076923077</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.3076923076923077</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.3125</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.18181818181818182</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.3125</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.5625</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.7272727272727273</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.18181818181818182</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.6363636363636364</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.09090909090909091</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.6363636363636364</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.9090909090909091</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.5625</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.3125</t>
+          <t>0.18181818181818182</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0.5625</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.6363636363636364</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.1875</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.8125</t>
+          <t>0.8181818181818182</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.625</t>
+          <t>0.6363636363636364</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.3125</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.5625</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.5151515151515151</t>
+          <t>0.3466666666666667</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.30666666666666664</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3939393939393939</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.48484848484848486</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.30303030303030304</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.38666666666666666</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.42424242424242425</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.3939393939393939</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.5151515151515151</t>
+          <t>0.30666666666666664</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.3939393939393939</t>
+          <t>0.4266666666666667</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.42424242424242425</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.48484848484848486</t>
+          <t>0.25333333333333335</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.696969696969697</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.25333333333333335</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.22666666666666666</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.25333333333333335</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.18181818181818182</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.5151515151515151</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.3939393939393939</t>
+          <t>0.13333333333333333</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.21212121212121213</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.41333333333333333</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.12121212121212122</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.41333333333333333</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.5151515151515151</t>
+          <t>0.29333333333333333</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.09333333333333334</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.3939393939393939</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.30303030303030304</t>
+          <t>0.3466666666666667</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.30303030303030304</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.3939393939393939</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.6933333333333334</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.42424242424242425</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.18181818181818182</t>
+          <t>0.18666666666666668</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.48484848484848486</t>
+          <t>0.3466666666666667</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.3466666666666667</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.12121212121212122</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.22666666666666666</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.5757575757575758</t>
+          <t>0.41333333333333333</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.18181818181818182</t>
+          <t>0.25333333333333335</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.41333333333333333</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.30303030303030304</t>
+          <t>0.9333333333333333</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.30303030303030304</t>
+          <t>0.30666666666666664</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.30666666666666664</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.5128205128205128</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.46153846153846156</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6410256410256411</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.46153846153846156</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.41025641025641024</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.5897435897435898</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.5384615384615384</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.5641025641025641</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.6153846153846154</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.28205128205128205</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.358974358974359</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.20512820512820512</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.3076923076923077</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.28205128205128205</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.358974358974359</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.1794871794871795</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.1282051282051282</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.5128205128205128</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.5384615384615384</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.5897435897435898</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.3076923076923077</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.3076923076923077</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.4117647058823529</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.33035714285714285</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.47058823529411764</t>
+          <t>0.3482142857142857</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.36607142857142855</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.41964285714285715</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.17647058823529413</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.47058823529411764</t>
+          <t>0.33035714285714285</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.26785714285714285</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.6470588235294118</t>
+          <t>0.4017857142857143</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.4117647058823529</t>
+          <t>0.5982142857142857</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.15178571428571427</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.5089285714285714</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.3482142857142857</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.3392857142857143</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.36607142857142855</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.47058823529411764</t>
+          <t>0.4107142857142857</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.4117647058823529</t>
+          <t>0.3482142857142857</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.4117647058823529</t>
+          <t>0.30357142857142855</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.16964285714285715</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.4117647058823529</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.39285714285714285</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.17647058823529413</t>
+          <t>0.25892857142857145</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.4017857142857143</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.4117647058823529</t>
+          <t>0.17857142857142858</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.19642857142857142</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.47058823529411764</t>
+          <t>0.5267857142857143</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.49107142857142855</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.4732142857142857</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.48214285714285715</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.47058823529411764</t>
+          <t>0.4107142857142857</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.4107142857142857</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.4117647058823529</t>
+          <t>0.2767857142857143</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.29464285714285715</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.17647058823529413</t>
+          <t>0.41964285714285715</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.8823529411764706</t>
+          <t>0.24107142857142858</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.6470588235294118</t>
+          <t>0.30357142857142855</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.47058823529411764</t>
+          <t>0.44642857142857145</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.45535714285714285</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.33035714285714285</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.7589285714285714</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.375</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.18181818181818182</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.7272727272727273</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.18181818181818182</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.6363636363636364</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.09090909090909091</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.6363636363636364</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.9090909090909091</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.18181818181818182</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.6363636363636364</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.8181818181818182</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.6363636363636364</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,763 +670,763 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.36666666666666664</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.5833333333333334</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.38333333333333336</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5833333333333334</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.48333333333333334</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.4166666666666667</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.6333333333333333</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.43333333333333335</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.4166666666666667</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.5166666666666667</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.4166666666666667</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.4166666666666667</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.18333333333333332</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.31666666666666665</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.48333333333333334</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0.31666666666666665</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>0.4</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.36666666666666664</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6333333333333333</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.43333333333333335</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.48333333333333334</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6833333333333333</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.48333333333333334</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.7666666666666667</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.4166666666666667</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.38333333333333336</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5833333333333334</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.43333333333333335</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.5428571428571428</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.37142857142857144</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.45714285714285713</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.3142857142857143</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.5428571428571428</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.45714285714285713</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.6857142857142857</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.45714285714285713</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.5142857142857142</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.22857142857142856</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.2571428571428571</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.14285714285714285</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.2571428571428571</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.5142857142857142</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.3142857142857143</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.5142857142857142</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.45714285714285713</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.4857142857142857</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.5142857142857142</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.11428571428571428</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.5128205128205128</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.46153846153846156</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6410256410256411</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.4411764705882353</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.46153846153846156</t>
+          <t>0.6176470588235294</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.41025641025641024</t>
+          <t>0.2647058823529412</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.5897435897435898</t>
+          <t>0.6764705882352942</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.5384615384615384</t>
+          <t>0.4411764705882353</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.5641025641025641</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.6153846153846154</t>
+          <t>0.5882352941176471</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.28205128205128205</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.358974358974359</t>
+          <t>0.2647058823529412</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.20512820512820512</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.2647058823529412</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.3235294117647059</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.38235294117647056</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.38235294117647056</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.3076923076923077</t>
+          <t>0.38235294117647056</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.28205128205128205</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.358974358974359</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.1794871794871795</t>
+          <t>0.6764705882352942</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.6470588235294118</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.5882352941176471</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.4358974358974359</t>
+          <t>0.6176470588235294</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.1282051282051282</t>
+          <t>0.8823529411764706</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.5128205128205128</t>
+          <t>0.7647058823529411</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.7352941176470589</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.5384615384615384</t>
+          <t>0.7941176470588235</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.5897435897435898</t>
+          <t>0.38235294117647056</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.2647058823529412</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.48717948717948717</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.6470588235294118</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.3076923076923077</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.3076923076923077</t>
+          <t>0.7352941176470589</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.3125</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.125</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.3125</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.5625</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1436,142 +1436,142 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.375</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0.125</t>
-        </is>
-      </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.375</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0.5625</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0.3125</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0.5625</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0.4375</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
         <is>
           <t>0.25</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0.4375</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>0.375</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>0.1875</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>0.8125</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>0.4375</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0.3125</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0.375</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0.4375</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>0.5625</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>0.5</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/frequency.xlsx
@@ -670,37 +670,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.36666666666666664</t>
+          <t>0.23809523809523808</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.35714285714285715</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.30952380952380953</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5833333333333334</t>
+          <t>0.35714285714285715</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.30952380952380953</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.38333333333333336</t>
+          <t>0.4523809523809524</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5833333333333334</t>
+          <t>0.5952380952380952</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -710,404 +710,404 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.48333333333333334</t>
+          <t>0.6428571428571429</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.35714285714285715</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.6333333333333333</t>
+          <t>0.5238095238095238</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.43333333333333335</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.5238095238095238</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.40476190476190477</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.5166666666666667</t>
+          <t>0.40476190476190477</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>0.40476190476190477</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.23809523809523808</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.19047619047619047</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.4523809523809524</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.23809523809523808</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.4166666666666667</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.4166666666666667</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.18333333333333332</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.31666666666666665</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.48333333333333334</t>
-        </is>
-      </c>
       <c r="V2" t="inlineStr">
         <is>
+          <t>0.5238095238095238</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0.23809523809523808</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0.4523809523809524</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.35714285714285715</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0.31666666666666665</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.36666666666666664</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.5333333333333333</t>
+          <t>0.47619047619047616</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.38095238095238093</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.4666666666666667</t>
+          <t>0.35714285714285715</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.6333333333333333</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.43333333333333335</t>
+          <t>0.40476190476190477</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.4666666666666667</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.48333333333333334</t>
+          <t>0.47619047619047616</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.6833333333333333</t>
+          <t>0.40476190476190477</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.48333333333333334</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.35714285714285715</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.7666666666666667</t>
+          <t>0.21428571428571427</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.7380952380952381</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.38333333333333336</t>
+          <t>0.47619047619047616</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.5833333333333334</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.38095238095238093</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.43333333333333335</t>
+          <t>0.35714285714285715</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.47619047619047616</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.30952380952380953</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.5333333333333333</t>
+          <t>0.6428571428571429</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>0.0</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>1.0</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1124,299 +1124,299 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>0.35294117647058826</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.35294117647058826</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>0.4117647058823529</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.38235294117647056</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.3235294117647059</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.3235294117647059</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5588235294117647</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.38235294117647056</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>0.47058823529411764</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.4411764705882353</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.4411764705882353</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.5588235294117647</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.38235294117647056</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.4411764705882353</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.4411764705882353</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.4117647058823529</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.4117647058823529</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.2647058823529412</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.5294117647058824</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.35294117647058826</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.2647058823529412</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.3235294117647059</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0.35294117647058826</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0.47058823529411764</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0.4411764705882353</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0.2647058823529412</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.4117647058823529</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>0.4411764705882353</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>0.5294117647058824</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>0.29411764705882354</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0.38235294117647056</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0.4117647058823529</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0.4411764705882353</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>0.29411764705882354</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>0.23529411764705882</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>0.7352941176470589</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>0.47058823529411764</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
         <is>
           <t>0.5294117647058824</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.4117647058823529</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6176470588235294</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.2647058823529412</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.6764705882352942</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0.38235294117647056</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>0.4411764705882353</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.47058823529411764</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.4117647058823529</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0.4117647058823529</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.4117647058823529</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.5882352941176471</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.4117647058823529</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.35294117647058826</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>0.29411764705882354</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
         <is>
           <t>0.5294117647058824</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.2647058823529412</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.29411764705882354</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.2647058823529412</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0.3235294117647059</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.38235294117647056</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.38235294117647056</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.38235294117647056</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0.47058823529411764</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>0.5294117647058824</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>0.6764705882352942</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>0.6470588235294118</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0.5882352941176471</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0.6176470588235294</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0.8823529411764706</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0.7647058823529411</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>0.7352941176470589</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>0.7941176470588235</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>0.5294117647058824</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>0.38235294117647056</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>0.35294117647058826</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0.2647058823529412</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0.6470588235294118</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>0.29411764705882354</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>0.7352941176470589</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1426,152 +1426,152 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>0.75</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
         <is>
           <t>0.75</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>0.25</t>
         </is>
       </c>
     </row>
